--- a/DSE_bond_data.xlsx
+++ b/DSE_bond_data.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
-  <si>
-    <t>Bond No.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+  <si>
+    <t>Bond_No.</t>
   </si>
   <si>
     <t>Term (Years)</t>
@@ -46,42 +46,39 @@
     <t>Yield</t>
   </si>
   <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>653</t>
+    <t>491</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>NMB</t>
   </si>
   <si>
     <t>520</t>
   </si>
   <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>NMB</t>
+    <t>576</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -91,223 +88,193 @@
     <t>15.49</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>15.95</t>
   </si>
   <si>
     <t>12.56</t>
   </si>
   <si>
-    <t>15.95</t>
-  </si>
-  <si>
     <t>9.50</t>
   </si>
   <si>
-    <t>16/12/2020</t>
-  </si>
-  <si>
-    <t>12/12/2022</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>28/12/2023</t>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>05/08/2021</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
   </si>
   <si>
     <t>07/11/2019</t>
   </si>
   <si>
-    <t>17/09/2020</t>
-  </si>
-  <si>
-    <t>05/08/2021</t>
-  </si>
-  <si>
-    <t>21/12/2022</t>
-  </si>
-  <si>
-    <t>12/12/2023</t>
-  </si>
-  <si>
-    <t>18/12/2040</t>
-  </si>
-  <si>
-    <t>13/12/2027</t>
-  </si>
-  <si>
-    <t>11/05/2048</t>
-  </si>
-  <si>
-    <t>17/08/2048</t>
-  </si>
-  <si>
-    <t>28/12/2048</t>
+    <t>14/04/2022</t>
+  </si>
+  <si>
+    <t>06/12/2038</t>
+  </si>
+  <si>
+    <t>05/11/2040</t>
+  </si>
+  <si>
+    <t>20/05/2041</t>
+  </si>
+  <si>
+    <t>08/07/2041</t>
+  </si>
+  <si>
+    <t>05/08/2046</t>
+  </si>
+  <si>
+    <t>15/10/2046</t>
+  </si>
+  <si>
+    <t>30/06/2048</t>
+  </si>
+  <si>
+    <t>12/12/2026</t>
   </si>
   <si>
     <t>07/11/2039</t>
   </si>
   <si>
-    <t>24/09/2040</t>
-  </si>
-  <si>
-    <t>05/08/2046</t>
-  </si>
-  <si>
-    <t>22/12/2047</t>
-  </si>
-  <si>
-    <t>12/12/2026</t>
+    <t>14/04/2042</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>24/05/2024</t>
-  </si>
-  <si>
-    <t>0.03400</t>
-  </si>
-  <si>
-    <t>0.10000</t>
-  </si>
-  <si>
-    <t>0.07000</t>
-  </si>
-  <si>
-    <t>0.50000</t>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>0.03010</t>
   </si>
   <si>
     <t>0.01000</t>
   </si>
   <si>
+    <t>0.02000</t>
+  </si>
+  <si>
+    <t>0.03500</t>
+  </si>
+  <si>
+    <t>0.02600</t>
+  </si>
+  <si>
+    <t>2.00000</t>
+  </si>
+  <si>
+    <t>0.01800</t>
+  </si>
+  <si>
+    <t>0.01500</t>
+  </si>
+  <si>
+    <t>0.02140</t>
+  </si>
+  <si>
     <t>0.03000</t>
   </si>
   <si>
-    <t>0.05000</t>
-  </si>
-  <si>
-    <t>15.00000</t>
-  </si>
-  <si>
-    <t>10.00000</t>
-  </si>
-  <si>
-    <t>5.00000</t>
-  </si>
-  <si>
-    <t>0.02000</t>
-  </si>
-  <si>
-    <t>4.00000</t>
-  </si>
-  <si>
-    <t>0.01300</t>
-  </si>
-  <si>
-    <t>0.00600</t>
-  </si>
-  <si>
-    <t>0.01100</t>
-  </si>
-  <si>
-    <t>0.02300</t>
-  </si>
-  <si>
-    <t>0.00370</t>
-  </si>
-  <si>
-    <t>112.1355</t>
-  </si>
-  <si>
-    <t>90.0199</t>
+    <t>0.00050</t>
+  </si>
+  <si>
+    <t>0.01200</t>
   </si>
   <si>
     <t>100.0000</t>
   </si>
   <si>
-    <t>99.9116</t>
-  </si>
-  <si>
-    <t>94.6500</t>
-  </si>
-  <si>
-    <t>106.1053</t>
-  </si>
-  <si>
-    <t>108.2000</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>119.4342</t>
-  </si>
-  <si>
-    <t>123.4405</t>
-  </si>
-  <si>
-    <t>123.7515</t>
-  </si>
-  <si>
-    <t>116.5224</t>
-  </si>
-  <si>
-    <t>108.3500</t>
-  </si>
-  <si>
-    <t>85.5001</t>
-  </si>
-  <si>
-    <t>14.4423</t>
-  </si>
-  <si>
-    <t>15.4575</t>
-  </si>
-  <si>
-    <t>12.6210</t>
-  </si>
-  <si>
-    <t>13.0329</t>
-  </si>
-  <si>
-    <t>14.0842</t>
-  </si>
-  <si>
-    <t>13.2652</t>
-  </si>
-  <si>
-    <t>14.6062</t>
-  </si>
-  <si>
-    <t>14.2811</t>
-  </si>
-  <si>
-    <t>14.1964</t>
-  </si>
-  <si>
-    <t>13.0167</t>
-  </si>
-  <si>
-    <t>13.3130</t>
-  </si>
-  <si>
-    <t>13.2754</t>
-  </si>
-  <si>
-    <t>14.1973</t>
-  </si>
-  <si>
-    <t>15.3772</t>
-  </si>
-  <si>
-    <t>13.3061</t>
-  </si>
-  <si>
-    <t>16.5466</t>
+    <t>100.3804</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>105.4961</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>112.0222</t>
+  </si>
+  <si>
+    <t>112.0001</t>
+  </si>
+  <si>
+    <t>102.1000</t>
+  </si>
+  <si>
+    <t>90.1451</t>
+  </si>
+  <si>
+    <t>85.2500</t>
+  </si>
+  <si>
+    <t>106.0219</t>
+  </si>
+  <si>
+    <t>82.0506</t>
+  </si>
+  <si>
+    <t>15.5156</t>
+  </si>
+  <si>
+    <t>15.6181</t>
+  </si>
+  <si>
+    <t>15.2534</t>
+  </si>
+  <si>
+    <t>14.0735</t>
+  </si>
+  <si>
+    <t>14.3573</t>
+  </si>
+  <si>
+    <t>14.8782</t>
+  </si>
+  <si>
+    <t>15.9600</t>
+  </si>
+  <si>
+    <t>14.4477</t>
+  </si>
+  <si>
+    <t>15.9435</t>
+  </si>
+  <si>
+    <t>14.9034</t>
+  </si>
+  <si>
+    <t>16.8499</t>
+  </si>
+  <si>
+    <t>14.6714</t>
+  </si>
+  <si>
+    <t>15.3265</t>
   </si>
 </sst>
 </file>
@@ -665,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,28 +678,28 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -740,31 +707,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -772,31 +739,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -804,63 +771,63 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -868,31 +835,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -900,31 +867,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -932,63 +899,63 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -996,31 +963,31 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1031,39 +998,39 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1072,275 +1039,51 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
